--- a/Spider/a.xlsx
+++ b/Spider/a.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\Desktop\信息\qd2\Spider\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\Desktop\新建文件夹 (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CDDB01-0AFC-44DB-B09F-2D83ACDA8F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414C9FB6-4747-44F8-A6A9-7567F9E2201F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6840" yWindow="3375" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -344,1180 +339,1435 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A233"/>
+  <dimension ref="A1:A284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>17014541765</v>
+        <v>16536892441</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>17050822672</v>
+        <v>16731806638</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>17000650766</v>
+        <v>17019413148</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>17140941200</v>
+        <v>16259506537</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>17026708043</v>
+        <v>17024076037</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>16238822630</v>
+        <v>17108391062</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>17050999813</v>
+        <v>17050589006</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>17016303512</v>
+        <v>16571304462</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>17000654207</v>
+        <v>17144318170</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>17016304658</v>
+        <v>17024079194</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>17000652147</v>
+        <v>16756340351</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>17140940875</v>
+        <v>17108390673</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>16223734012</v>
+        <v>16536766003</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>17020834653</v>
+        <v>16536765570</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>16785371339</v>
+        <v>16571181962</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>16785370776</v>
+        <v>16536799206</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>17000655184</v>
+        <v>17019414552</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17171261565</v>
+        <v>16210994790</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>16274745949</v>
+        <v>16210991537</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>17040670785</v>
+        <v>16211722236</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>16223738754</v>
+        <v>16536793271</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>15874182074</v>
+        <v>16522168852</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>17000655206</v>
+        <v>17108390797</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>17041518145</v>
+        <v>16756340897</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>16261656278</v>
+        <v>16211957724</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>17017932410</v>
+        <v>16731809288</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>16238822506</v>
+        <v>16227211407</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>16785370695</v>
+        <v>16232403653</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>17016304138</v>
+        <v>16250451638</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>17140945763</v>
+        <v>17024075376</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>17090648860</v>
+        <v>17108391220</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>17171262021</v>
+        <v>17019414516</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>17016304133</v>
+        <v>17025594686</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>16785371361</v>
+        <v>16537639942</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>16740445025</v>
+        <v>16259504341</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>17024464392</v>
+        <v>16254432505</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>17026963728</v>
+        <v>16211722178</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>16223739395</v>
+        <v>17017931901</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>17171261410</v>
+        <v>16259508708</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>17140946763</v>
+        <v>16238822469</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>16785981410</v>
+        <v>16536799165</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>17000652848</v>
+        <v>16237902343</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>16212917882</v>
+        <v>17024076350</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>17171261547</v>
+        <v>17144318232</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>17000652969</v>
+        <v>17025325413</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>17050589608</v>
+        <v>16259508674</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>17026708136</v>
+        <v>17140946872</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>16223735966</v>
+        <v>16259503421</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>16785371331</v>
+        <v>16232404536</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>16756020575</v>
+        <v>16254437286</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>17017932508</v>
+        <v>16522191969</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>17026709124</v>
+        <v>17017918890</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>16785511714</v>
+        <v>16571716372</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>16212911631</v>
+        <v>16521423355</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>16220710647</v>
+        <v>17021341834</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>17000653700</v>
+        <v>16232409869</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>17016303166</v>
+        <v>16798260204</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>17017916658</v>
+        <v>16259508494</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>17024465648</v>
+        <v>16259508447</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>16273445450</v>
+        <v>17028812157</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>17024465520</v>
+        <v>17024071241</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>17000652438</v>
+        <v>16756340186</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>17000650369</v>
+        <v>16522190532</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>16756608611</v>
+        <v>16259508564</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>17016303325</v>
+        <v>16232402129</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>17171261670</v>
+        <v>16521420880</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>16223735896</v>
+        <v>17024072874</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>16785370325</v>
+        <v>16232407191</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>17000651850</v>
+        <v>16228204995</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>17140941033</v>
+        <v>16259508604</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>17014541647</v>
+        <v>16228348684</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>16238822397</v>
+        <v>16259504103</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>17000653326</v>
+        <v>17140947008</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>17000653224</v>
+        <v>17050545640</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>17000651568</v>
+        <v>16232405812</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>17167856960</v>
+        <v>17024076131</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>17140941075</v>
+        <v>16536793313</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>16785370591</v>
+        <v>17108390243</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>17050545608</v>
+        <v>16756613027</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>17000650543</v>
+        <v>16259509368</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>17143467187</v>
+        <v>16228347813</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>16785371081</v>
+        <v>16237900439</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>17069624066</v>
+        <v>16232409965</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>16756020612</v>
+        <v>16536895765</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>17016304809</v>
+        <v>16798262041</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>17000652790</v>
+        <v>16756682005</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>16220710317</v>
+        <v>16785902451</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>17016304207</v>
+        <v>17017919435</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>17016303433</v>
+        <v>16232401646</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>16223737486</v>
+        <v>16211728935</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>16223732056</v>
+        <v>17019415624</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>17016304762</v>
+        <v>17108390325</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>17000653705</v>
+        <v>16227211563</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>17016304262</v>
+        <v>17108390887</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>17000654147</v>
+        <v>16211722151</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>17016304363</v>
+        <v>16536581334</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>17041516095</v>
+        <v>16756340862</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>17040670806</v>
+        <v>16238822637</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>17050580493</v>
+        <v>16259508247</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>16522190930</v>
+        <v>16227211498</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>17000650782</v>
+        <v>16536799071</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>18721440254</v>
+        <v>16756072652</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>17140941260</v>
+        <v>16536226763</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>16740445053</v>
+        <v>17145236295</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>17000654465</v>
+        <v>16537639401</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>16521635466</v>
+        <v>16537630539</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>16238822698</v>
+        <v>17024079044</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>17014541659</v>
+        <v>16259509747</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>18721491806</v>
+        <v>16211722319</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>18640816212</v>
+        <v>16227210318</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>13641797504</v>
+        <v>16756072509</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>16571182183</v>
+        <v>16259504380</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>17140940991</v>
+        <v>16798260540</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>17000655027</v>
+        <v>16220711499</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>17166764490</v>
+        <v>17017913208</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>16522194944</v>
+        <v>16571304223</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>16219420538</v>
+        <v>16798260411</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>17000651091</v>
+        <v>16536893945</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>16536225024</v>
+        <v>16254431537</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>16785371073</v>
+        <v>16259506035</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>16274742974</v>
+        <v>16227211063</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>16536227106</v>
+        <v>16211729092</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>16223736363</v>
+        <v>16536895607</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>16212948481</v>
+        <v>16259503387</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>16785371307</v>
+        <v>17144317963</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>17016303418</v>
+        <v>17092645343</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>16571153054</v>
+        <v>17144317920</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>16212949527</v>
+        <v>17144317973</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>17024078629</v>
+        <v>16537630361</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>17050540195</v>
+        <v>16756892961</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>17050589726</v>
+        <v>16259504559</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>17024077169</v>
+        <v>16232407564</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>17028070356</v>
+        <v>16798262467</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>17050540322</v>
+        <v>16756340189</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>17017044624</v>
+        <v>17144317912</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>17050588482</v>
+        <v>16536221324</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>17054269502</v>
+        <v>16232401480</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>17038343227</v>
+        <v>16210745152</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>17017038310</v>
+        <v>17017932028</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>17050998986</v>
+        <v>16536580476</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>17017041624</v>
+        <v>16259503464</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>17050588514</v>
+        <v>16227212566</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>17017036196</v>
+        <v>16536227571</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>17017918959</v>
+        <v>16756892817</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>17023307623</v>
+        <v>16536894070</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>17050589231</v>
+        <v>17017915906</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>17026846921</v>
+        <v>17145236797</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>17017024504</v>
+        <v>17025594680</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>17017043145</v>
+        <v>16232407996</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>17038391007</v>
+        <v>16521627272</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>17024078579</v>
+        <v>16731806718</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>17038391355</v>
+        <v>17144346163</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>17017021150</v>
+        <v>16238820477</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>17050589007</v>
+        <v>16536226601</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>17017036157</v>
+        <v>16211957732</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>17019468560</v>
+        <v>16764764265</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>17017910903</v>
+        <v>16537635543</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>17026846720</v>
+        <v>16259508452</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>17023309554</v>
+        <v>16210994645</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>17026846113</v>
+        <v>16537630632</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>17010682124</v>
+        <v>16756681791</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>17028070169</v>
+        <v>16211954426</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>17017594996</v>
+        <v>17145236732</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>17028014604</v>
+        <v>16232408387</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>17024074884</v>
+        <v>16522199829</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>17092332340</v>
+        <v>16798262040</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>17090641335</v>
+        <v>16756681887</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>17018404361</v>
+        <v>16232406080</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>17084436953</v>
+        <v>16232403970</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>17090641064</v>
+        <v>17144318597</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>17017932698</v>
+        <v>16211728967</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>17019959968</v>
+        <v>16522167508</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>17024075294</v>
+        <v>16232406272</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>17017038395</v>
+        <v>16227210018</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>17017034385</v>
+        <v>16211959649</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>17024071696</v>
+        <v>16740445017</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>17017043092</v>
+        <v>16521998388</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>17017036561</v>
+        <v>16232403591</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>17017038227</v>
+        <v>16250451493</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>18721431062</v>
+        <v>16756892810</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>13641794464</v>
+        <v>16259505990</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>17555003191</v>
+        <v>16237903014</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>13095508970</v>
+        <v>16210744939</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>15665502970</v>
+        <v>16537636364</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>17050549213</v>
+        <v>16798262042</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>17050588973</v>
+        <v>16232405106</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>17050545561</v>
+        <v>16536895907</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>17040278449</v>
+        <v>16571183676</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>17017043084</v>
+        <v>16521627166</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>17090648571</v>
+        <v>16259504412</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>17028070408</v>
+        <v>16521628200</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>17026846982</v>
+        <v>16222653090</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>17024074409</v>
+        <v>16228204924</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>17050540521</v>
+        <v>16536896090</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>17024073321</v>
+        <v>16232407232</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>17017910701</v>
+        <v>16222651393</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>17017034335</v>
+        <v>17024071970</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>17024074396</v>
+        <v>16571764521</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>17050999896</v>
+        <v>16756612737</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>17028070051</v>
+        <v>16731809700</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>17023309623</v>
+        <v>16259508262</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>17090641809</v>
+        <v>16756071812</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>17017044712</v>
+        <v>16263388826</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>17017912732</v>
+        <v>16263388502</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>17028013264</v>
+        <v>16521622677</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>17017047421</v>
+        <v>16211956079</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>17017036198</v>
+        <v>16521621321</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>17017022503</v>
+        <v>17011271798</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>17024075261</v>
+        <v>17024073719</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>17050548967</v>
+        <v>16536730408</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>17050588930</v>
+        <v>16210769704</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>17017912487</v>
+        <v>16232401746</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>17019468584</v>
+        <v>17024077294</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>17024073067</v>
+        <v>16521626800</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>17017039382</v>
+        <v>18559545949</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>17017038171</v>
+        <v>16764763342</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>17026848332</v>
+        <v>16756305380</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>17021344063</v>
+        <v>17024077514</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>17050588646</v>
+        <v>16210769698</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>17092331702</v>
+        <v>16232402337</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>17050588662</v>
+        <v>16571133259</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>17017919132</v>
+        <v>17010013094</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>17050588559</v>
+        <v>16764764283</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>17017049413</v>
+        <v>16731807528</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>17026848774</v>
+        <v>16210993027</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>17050548804</v>
+        <v>17050588492</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>17017912464</v>
+        <v>17025597039</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>17038391622</v>
+        <v>17090649046</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>17038392077</v>
+        <v>16536619640</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>17024076049</v>
+        <v>17106841436</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>17050585754</v>
+        <v>16756340757</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>17024078045</v>
+        <v>16764764179</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>17092332237</v>
+        <v>16756681916</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>16259509320</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>16222651575</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>17024079241</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>17024078446</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>16571181963</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>16536612730</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>16792846515</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>16537630272</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>16536792960</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>16254431350</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>17025594738</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>16222652813</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>15655045892</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>16536737164</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>17092646392</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>16238822569</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>16536730132</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>16211729140</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>16210769695</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>15606034068</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>16536730381</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>17025823863</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>17025821171</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>16211958096</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>16259503169</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>16571303743</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>16232408276</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>17050545822</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>16211957716</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>17025825752</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>16536229053</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>16536896069</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>16259508597</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>17092649636</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>16228204931</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>16210993041</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>17050991095</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>16521420835</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>16571133378</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>16254431373</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>16259508659</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>16756340131</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>17084437706</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>16521620433</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>16756340257</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>16254432687</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>16259505869</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>16536766160</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>16537630330</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>16536793973</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>17140946929</v>
       </c>
     </row>
   </sheetData>
